--- a/day07/data/최종_서울_스타벅스매장리스트.xlsx
+++ b/day07/data/최종_서울_스타벅스매장리스트.xlsx
@@ -494,7 +494,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -593,7 +593,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -890,7 +890,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2309,7 +2309,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2342,7 +2342,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2375,7 +2375,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2474,7 +2474,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -2738,7 +2738,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -2870,7 +2870,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3002,7 +3002,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3035,7 +3035,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3134,7 +3134,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3200,7 +3200,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3299,7 +3299,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -3365,7 +3365,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -3431,7 +3431,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -3464,7 +3464,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -3497,7 +3497,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -3563,7 +3563,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -3596,7 +3596,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -3629,7 +3629,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -3761,7 +3761,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -3860,7 +3860,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -3959,7 +3959,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4025,7 +4025,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -4091,7 +4091,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -4124,7 +4124,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -4157,7 +4157,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -4256,7 +4256,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -4289,7 +4289,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -4322,7 +4322,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -4355,7 +4355,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -4388,7 +4388,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -4421,7 +4421,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -4487,7 +4487,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -4586,7 +4586,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -4619,7 +4619,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -4652,7 +4652,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -4685,7 +4685,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -4718,7 +4718,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -4751,7 +4751,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -4784,7 +4784,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -4817,7 +4817,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -4850,7 +4850,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -4883,7 +4883,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -4916,7 +4916,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -4949,7 +4949,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -4982,7 +4982,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -5048,7 +5048,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -5147,7 +5147,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -5180,7 +5180,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -5213,7 +5213,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -5246,7 +5246,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -5279,7 +5279,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -5312,7 +5312,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -5345,7 +5345,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -5378,7 +5378,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -5411,7 +5411,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -5444,7 +5444,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -5477,7 +5477,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -5510,7 +5510,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -5543,7 +5543,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -5576,7 +5576,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -5642,7 +5642,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -5675,7 +5675,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -5708,7 +5708,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -5741,7 +5741,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -5774,7 +5774,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -5807,7 +5807,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -5873,7 +5873,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -5939,7 +5939,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -5972,7 +5972,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -6005,7 +6005,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -6038,7 +6038,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -6071,7 +6071,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -6104,7 +6104,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -6170,7 +6170,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -6203,7 +6203,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -6236,7 +6236,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -6269,7 +6269,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -6335,7 +6335,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -6467,7 +6467,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -6500,7 +6500,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -6533,7 +6533,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -6566,7 +6566,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -6599,7 +6599,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -6632,7 +6632,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -6665,7 +6665,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -6698,7 +6698,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -6731,7 +6731,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -6764,7 +6764,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -6797,7 +6797,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -6830,7 +6830,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -6863,7 +6863,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -6929,7 +6929,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -6962,7 +6962,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -6995,7 +6995,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -7028,7 +7028,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -7061,7 +7061,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -7094,7 +7094,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -7127,7 +7127,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -7160,7 +7160,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -7193,7 +7193,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -7226,7 +7226,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -7259,7 +7259,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -7292,7 +7292,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -7325,7 +7325,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -7358,7 +7358,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -7391,7 +7391,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -7490,7 +7490,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -7523,7 +7523,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -7589,7 +7589,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -7622,7 +7622,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -7655,7 +7655,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -7688,7 +7688,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -7721,7 +7721,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -7754,7 +7754,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -7787,7 +7787,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -7820,7 +7820,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -7853,7 +7853,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -7886,7 +7886,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -7919,7 +7919,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -8018,7 +8018,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -8084,7 +8084,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -8150,7 +8150,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -8183,7 +8183,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -8216,7 +8216,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -8249,7 +8249,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -8282,7 +8282,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -8315,7 +8315,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -8348,7 +8348,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -8381,7 +8381,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -8414,7 +8414,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -8447,7 +8447,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -8480,7 +8480,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -8513,7 +8513,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -8546,7 +8546,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -8579,7 +8579,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -8612,7 +8612,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -8645,7 +8645,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -8678,7 +8678,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -8711,7 +8711,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -8744,7 +8744,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -8777,7 +8777,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -8810,7 +8810,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -8843,7 +8843,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -8876,7 +8876,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -8909,7 +8909,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -8942,7 +8942,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -8975,7 +8975,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -9008,7 +9008,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -9041,7 +9041,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -9074,7 +9074,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -9107,7 +9107,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -9140,7 +9140,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -9173,7 +9173,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -9206,7 +9206,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -9239,7 +9239,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -9272,7 +9272,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -9305,7 +9305,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -9338,7 +9338,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -9371,7 +9371,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -9404,7 +9404,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -9437,7 +9437,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -9470,7 +9470,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -9503,7 +9503,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
@@ -9536,7 +9536,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -9569,7 +9569,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -9602,7 +9602,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -9635,7 +9635,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -9668,7 +9668,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -9701,7 +9701,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -9734,7 +9734,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -9767,7 +9767,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -9800,7 +9800,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -9833,7 +9833,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
@@ -9866,7 +9866,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -9899,7 +9899,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -9932,7 +9932,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -9965,7 +9965,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -9998,7 +9998,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -10031,7 +10031,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -10064,7 +10064,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -10097,7 +10097,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
@@ -10130,7 +10130,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -10163,7 +10163,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -10196,7 +10196,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
@@ -10229,7 +10229,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -10262,7 +10262,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -10295,7 +10295,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
@@ -10328,7 +10328,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
@@ -10361,7 +10361,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
@@ -10394,7 +10394,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
@@ -10427,7 +10427,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -10460,7 +10460,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
@@ -10493,7 +10493,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
@@ -10526,7 +10526,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
@@ -10559,7 +10559,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
@@ -10592,7 +10592,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
@@ -10625,7 +10625,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
@@ -10658,7 +10658,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
@@ -10691,7 +10691,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
@@ -10724,7 +10724,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
@@ -10757,7 +10757,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
@@ -10790,7 +10790,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
@@ -10823,7 +10823,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
@@ -10856,7 +10856,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
@@ -10889,7 +10889,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
@@ -10955,7 +10955,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
@@ -10988,7 +10988,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
@@ -11021,7 +11021,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
@@ -11054,7 +11054,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
@@ -11087,7 +11087,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
@@ -11120,7 +11120,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
@@ -11153,7 +11153,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -11186,7 +11186,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
@@ -11219,7 +11219,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
@@ -11252,7 +11252,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -11285,7 +11285,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -11318,7 +11318,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
@@ -11351,7 +11351,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
@@ -11384,7 +11384,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
@@ -11417,7 +11417,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
@@ -11450,7 +11450,7 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
@@ -11483,7 +11483,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
@@ -11516,7 +11516,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
@@ -11549,7 +11549,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
@@ -11582,7 +11582,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
@@ -11615,7 +11615,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
@@ -11648,7 +11648,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
@@ -11681,7 +11681,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -11714,7 +11714,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
@@ -11747,7 +11747,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
@@ -11780,7 +11780,7 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
@@ -11813,7 +11813,7 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
@@ -11846,7 +11846,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
@@ -11879,7 +11879,7 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
@@ -11912,7 +11912,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
@@ -11945,7 +11945,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
@@ -11978,7 +11978,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
@@ -12011,7 +12011,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
@@ -12044,7 +12044,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
@@ -12077,7 +12077,7 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
@@ -12110,7 +12110,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
@@ -12143,7 +12143,7 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
@@ -12176,7 +12176,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
@@ -12209,7 +12209,7 @@
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
@@ -12242,7 +12242,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
@@ -12275,7 +12275,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
@@ -12308,7 +12308,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
@@ -12341,7 +12341,7 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
@@ -12374,7 +12374,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
@@ -12407,7 +12407,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
@@ -12440,7 +12440,7 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G364" t="inlineStr">
@@ -12473,7 +12473,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
@@ -12506,7 +12506,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
@@ -12539,7 +12539,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
@@ -12572,7 +12572,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
@@ -12605,7 +12605,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
@@ -12638,7 +12638,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
@@ -12671,7 +12671,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
@@ -12704,7 +12704,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
@@ -12737,7 +12737,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
@@ -12770,7 +12770,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
@@ -12803,7 +12803,7 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
@@ -12836,7 +12836,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
@@ -12869,7 +12869,7 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
@@ -12902,7 +12902,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
@@ -12935,7 +12935,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
@@ -12968,7 +12968,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
@@ -13001,7 +13001,7 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
@@ -13034,7 +13034,7 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
@@ -13067,7 +13067,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
@@ -13100,7 +13100,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
@@ -13133,7 +13133,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
@@ -13166,7 +13166,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
@@ -13199,7 +13199,7 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
@@ -13232,7 +13232,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
@@ -13265,7 +13265,7 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
@@ -13298,7 +13298,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
@@ -13331,7 +13331,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
@@ -13364,7 +13364,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
@@ -13397,7 +13397,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
@@ -13430,7 +13430,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
@@ -13463,7 +13463,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
@@ -13496,7 +13496,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
@@ -13529,7 +13529,7 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
@@ -13562,7 +13562,7 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
@@ -13595,7 +13595,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
@@ -13628,7 +13628,7 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G400" t="inlineStr">
@@ -13661,7 +13661,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
@@ -13694,7 +13694,7 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
@@ -13727,7 +13727,7 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
@@ -13760,7 +13760,7 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
@@ -13793,7 +13793,7 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
@@ -13826,7 +13826,7 @@
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
@@ -13859,7 +13859,7 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G407" t="inlineStr">
@@ -13892,7 +13892,7 @@
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G408" t="inlineStr">
@@ -13925,7 +13925,7 @@
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G409" t="inlineStr">
@@ -13958,7 +13958,7 @@
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G410" t="inlineStr">
@@ -13991,7 +13991,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G411" t="inlineStr">
@@ -14024,7 +14024,7 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G412" t="inlineStr">
@@ -14057,7 +14057,7 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
@@ -14090,7 +14090,7 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G414" t="inlineStr">
@@ -14123,7 +14123,7 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G415" t="inlineStr">
@@ -14156,7 +14156,7 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G416" t="inlineStr">
@@ -14189,7 +14189,7 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G417" t="inlineStr">
@@ -14222,7 +14222,7 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G418" t="inlineStr">
@@ -14255,7 +14255,7 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G419" t="inlineStr">
@@ -14288,7 +14288,7 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G420" t="inlineStr">
@@ -14321,7 +14321,7 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G421" t="inlineStr">
@@ -14354,7 +14354,7 @@
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G422" t="inlineStr">
@@ -14387,7 +14387,7 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
@@ -14420,7 +14420,7 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G424" t="inlineStr">
@@ -14453,7 +14453,7 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G425" t="inlineStr">
@@ -14486,7 +14486,7 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G426" t="inlineStr">
@@ -14519,7 +14519,7 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G427" t="inlineStr">
@@ -14552,7 +14552,7 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
@@ -14585,7 +14585,7 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G429" t="inlineStr">
@@ -14618,7 +14618,7 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G430" t="inlineStr">
@@ -14651,7 +14651,7 @@
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G431" t="inlineStr">
@@ -14684,7 +14684,7 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G432" t="inlineStr">
@@ -14717,7 +14717,7 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G433" t="inlineStr">
@@ -14750,7 +14750,7 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G434" t="inlineStr">
@@ -14783,7 +14783,7 @@
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G435" t="inlineStr">
@@ -14816,7 +14816,7 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G436" t="inlineStr">
@@ -14849,7 +14849,7 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G437" t="inlineStr">
@@ -14882,7 +14882,7 @@
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G438" t="inlineStr">
@@ -14915,7 +14915,7 @@
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G439" t="inlineStr">
@@ -14948,7 +14948,7 @@
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G440" t="inlineStr">
@@ -14981,7 +14981,7 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G441" t="inlineStr">
@@ -15014,7 +15014,7 @@
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G442" t="inlineStr">
@@ -15047,7 +15047,7 @@
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G443" t="inlineStr">
@@ -15080,7 +15080,7 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G444" t="inlineStr">
@@ -15113,7 +15113,7 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G445" t="inlineStr">
@@ -15146,7 +15146,7 @@
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G446" t="inlineStr">
@@ -15179,7 +15179,7 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G447" t="inlineStr">
@@ -15212,7 +15212,7 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G448" t="inlineStr">
@@ -15245,7 +15245,7 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
@@ -15278,7 +15278,7 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G450" t="inlineStr">
@@ -15311,7 +15311,7 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G451" t="inlineStr">
@@ -15344,7 +15344,7 @@
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G452" t="inlineStr">
@@ -15377,7 +15377,7 @@
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G453" t="inlineStr">
@@ -15410,7 +15410,7 @@
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G454" t="inlineStr">
@@ -15443,7 +15443,7 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G455" t="inlineStr">
@@ -15476,7 +15476,7 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G456" t="inlineStr">
@@ -15509,7 +15509,7 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G457" t="inlineStr">
@@ -15542,7 +15542,7 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G458" t="inlineStr">
@@ -15575,7 +15575,7 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G459" t="inlineStr">
@@ -15608,7 +15608,7 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G460" t="inlineStr">
@@ -15641,7 +15641,7 @@
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G461" t="inlineStr">
@@ -15674,7 +15674,7 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G462" t="inlineStr">
@@ -15707,7 +15707,7 @@
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G463" t="inlineStr">
@@ -15740,7 +15740,7 @@
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G464" t="inlineStr">
@@ -15773,7 +15773,7 @@
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G465" t="inlineStr">
@@ -15806,7 +15806,7 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G466" t="inlineStr">
@@ -15839,7 +15839,7 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G467" t="inlineStr">
@@ -15872,7 +15872,7 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G468" t="inlineStr">
@@ -15905,7 +15905,7 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G469" t="inlineStr">
@@ -15938,7 +15938,7 @@
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G470" t="inlineStr">
@@ -15971,7 +15971,7 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G471" t="inlineStr">
@@ -16004,7 +16004,7 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G472" t="inlineStr">
@@ -16037,7 +16037,7 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G473" t="inlineStr">
@@ -16070,7 +16070,7 @@
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G474" t="inlineStr">
@@ -16103,7 +16103,7 @@
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G475" t="inlineStr">
@@ -16136,7 +16136,7 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G476" t="inlineStr">
@@ -16169,7 +16169,7 @@
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G477" t="inlineStr">
@@ -16202,7 +16202,7 @@
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G478" t="inlineStr">
@@ -16235,7 +16235,7 @@
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G479" t="inlineStr">
@@ -16268,7 +16268,7 @@
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G480" t="inlineStr">
@@ -16301,7 +16301,7 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G481" t="inlineStr">
@@ -16334,7 +16334,7 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G482" t="inlineStr">
@@ -16367,7 +16367,7 @@
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G483" t="inlineStr">
@@ -16400,7 +16400,7 @@
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G484" t="inlineStr">
@@ -16433,7 +16433,7 @@
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G485" t="inlineStr">
@@ -16466,7 +16466,7 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G486" t="inlineStr">
@@ -16499,7 +16499,7 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G487" t="inlineStr">
@@ -16532,7 +16532,7 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G488" t="inlineStr">
@@ -16565,7 +16565,7 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G489" t="inlineStr">
@@ -16598,7 +16598,7 @@
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G490" t="inlineStr">
@@ -16631,7 +16631,7 @@
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G491" t="inlineStr">
@@ -16664,7 +16664,7 @@
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G492" t="inlineStr">
@@ -16697,7 +16697,7 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G493" t="inlineStr">
@@ -16730,7 +16730,7 @@
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G494" t="inlineStr">
@@ -16763,7 +16763,7 @@
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G495" t="inlineStr">
@@ -16796,7 +16796,7 @@
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G496" t="inlineStr">
@@ -16829,7 +16829,7 @@
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G497" t="inlineStr">
@@ -16862,7 +16862,7 @@
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G498" t="inlineStr">
@@ -16895,7 +16895,7 @@
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G499" t="inlineStr">
@@ -16928,7 +16928,7 @@
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G500" t="inlineStr">
@@ -16961,7 +16961,7 @@
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G501" t="inlineStr">
@@ -16994,7 +16994,7 @@
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G502" t="inlineStr">
@@ -17027,7 +17027,7 @@
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G503" t="inlineStr">
@@ -17060,7 +17060,7 @@
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G504" t="inlineStr">
@@ -17093,7 +17093,7 @@
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G505" t="inlineStr">
@@ -17126,7 +17126,7 @@
       </c>
       <c r="F506" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G506" t="inlineStr">
@@ -17159,7 +17159,7 @@
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G507" t="inlineStr">
@@ -17192,7 +17192,7 @@
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G508" t="inlineStr">
@@ -17225,7 +17225,7 @@
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G509" t="inlineStr">
@@ -17258,7 +17258,7 @@
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G510" t="inlineStr">
@@ -17291,7 +17291,7 @@
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G511" t="inlineStr">
@@ -17324,7 +17324,7 @@
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G512" t="inlineStr">
@@ -17357,7 +17357,7 @@
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G513" t="inlineStr">
@@ -17390,7 +17390,7 @@
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G514" t="inlineStr">
@@ -17423,7 +17423,7 @@
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G515" t="inlineStr">
@@ -17456,7 +17456,7 @@
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G516" t="inlineStr">
@@ -17489,7 +17489,7 @@
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G517" t="inlineStr">
@@ -17522,7 +17522,7 @@
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G518" t="inlineStr">
@@ -17555,7 +17555,7 @@
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G519" t="inlineStr">
@@ -17588,7 +17588,7 @@
       </c>
       <c r="F520" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G520" t="inlineStr">
@@ -17621,7 +17621,7 @@
       </c>
       <c r="F521" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G521" t="inlineStr">
@@ -17654,7 +17654,7 @@
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G522" t="inlineStr">
@@ -17687,7 +17687,7 @@
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G523" t="inlineStr">
@@ -17720,7 +17720,7 @@
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G524" t="inlineStr">
@@ -17753,7 +17753,7 @@
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G525" t="inlineStr">
@@ -17786,7 +17786,7 @@
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G526" t="inlineStr">
@@ -17819,7 +17819,7 @@
       </c>
       <c r="F527" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G527" t="inlineStr">
@@ -17852,7 +17852,7 @@
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G528" t="inlineStr">
@@ -17885,7 +17885,7 @@
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G529" t="inlineStr">
@@ -17918,7 +17918,7 @@
       </c>
       <c r="F530" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G530" t="inlineStr">
@@ -17951,7 +17951,7 @@
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G531" t="inlineStr">
@@ -17984,7 +17984,7 @@
       </c>
       <c r="F532" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G532" t="inlineStr">
@@ -18017,7 +18017,7 @@
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G533" t="inlineStr">
@@ -18050,7 +18050,7 @@
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G534" t="inlineStr">
@@ -18083,7 +18083,7 @@
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G535" t="inlineStr">
@@ -18116,7 +18116,7 @@
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G536" t="inlineStr">
@@ -18149,7 +18149,7 @@
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G537" t="inlineStr">
@@ -18182,7 +18182,7 @@
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G538" t="inlineStr">
@@ -18215,7 +18215,7 @@
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G539" t="inlineStr">
@@ -18248,7 +18248,7 @@
       </c>
       <c r="F540" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G540" t="inlineStr">
@@ -18281,7 +18281,7 @@
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G541" t="inlineStr">
@@ -18314,7 +18314,7 @@
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G542" t="inlineStr">
@@ -18347,7 +18347,7 @@
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G543" t="inlineStr">
@@ -18380,7 +18380,7 @@
       </c>
       <c r="F544" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G544" t="inlineStr">
@@ -18413,7 +18413,7 @@
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G545" t="inlineStr">
@@ -18446,7 +18446,7 @@
       </c>
       <c r="F546" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G546" t="inlineStr">
@@ -18479,7 +18479,7 @@
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G547" t="inlineStr">
@@ -18512,7 +18512,7 @@
       </c>
       <c r="F548" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G548" t="inlineStr">
@@ -18545,7 +18545,7 @@
       </c>
       <c r="F549" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G549" t="inlineStr">
@@ -18578,7 +18578,7 @@
       </c>
       <c r="F550" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G550" t="inlineStr">
@@ -18611,7 +18611,7 @@
       </c>
       <c r="F551" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G551" t="inlineStr">
@@ -18644,7 +18644,7 @@
       </c>
       <c r="F552" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G552" t="inlineStr">
@@ -18677,7 +18677,7 @@
       </c>
       <c r="F553" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G553" t="inlineStr">
@@ -18710,7 +18710,7 @@
       </c>
       <c r="F554" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G554" t="inlineStr">
@@ -18743,7 +18743,7 @@
       </c>
       <c r="F555" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G555" t="inlineStr">
@@ -18776,7 +18776,7 @@
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G556" t="inlineStr">
@@ -18809,7 +18809,7 @@
       </c>
       <c r="F557" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G557" t="inlineStr">
@@ -18842,7 +18842,7 @@
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G558" t="inlineStr">
@@ -18875,7 +18875,7 @@
       </c>
       <c r="F559" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G559" t="inlineStr">
@@ -18908,7 +18908,7 @@
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G560" t="inlineStr">
@@ -18941,7 +18941,7 @@
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G561" t="inlineStr">
@@ -18974,7 +18974,7 @@
       </c>
       <c r="F562" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G562" t="inlineStr">
@@ -19007,7 +19007,7 @@
       </c>
       <c r="F563" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G563" t="inlineStr">
@@ -19040,7 +19040,7 @@
       </c>
       <c r="F564" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G564" t="inlineStr">
@@ -19073,7 +19073,7 @@
       </c>
       <c r="F565" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G565" t="inlineStr">
@@ -19106,7 +19106,7 @@
       </c>
       <c r="F566" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G566" t="inlineStr">
@@ -19139,7 +19139,7 @@
       </c>
       <c r="F567" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G567" t="inlineStr">
@@ -19172,7 +19172,7 @@
       </c>
       <c r="F568" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G568" t="inlineStr">
@@ -19205,7 +19205,7 @@
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G569" t="inlineStr">
@@ -19238,7 +19238,7 @@
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G570" t="inlineStr">
@@ -19271,7 +19271,7 @@
       </c>
       <c r="F571" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G571" t="inlineStr">
@@ -19304,7 +19304,7 @@
       </c>
       <c r="F572" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G572" t="inlineStr">
@@ -19337,7 +19337,7 @@
       </c>
       <c r="F573" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G573" t="inlineStr">
@@ -19370,7 +19370,7 @@
       </c>
       <c r="F574" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G574" t="inlineStr">
@@ -19403,7 +19403,7 @@
       </c>
       <c r="F575" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G575" t="inlineStr">
@@ -19436,7 +19436,7 @@
       </c>
       <c r="F576" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G576" t="inlineStr">
@@ -19469,7 +19469,7 @@
       </c>
       <c r="F577" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G577" t="inlineStr">
@@ -19502,7 +19502,7 @@
       </c>
       <c r="F578" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G578" t="inlineStr">
@@ -19535,7 +19535,7 @@
       </c>
       <c r="F579" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G579" t="inlineStr">
@@ -19568,7 +19568,7 @@
       </c>
       <c r="F580" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G580" t="inlineStr">
@@ -19601,7 +19601,7 @@
       </c>
       <c r="F581" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G581" t="inlineStr">
@@ -19634,7 +19634,7 @@
       </c>
       <c r="F582" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G582" t="inlineStr">
@@ -19667,7 +19667,7 @@
       </c>
       <c r="F583" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G583" t="inlineStr">
@@ -19700,7 +19700,7 @@
       </c>
       <c r="F584" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G584" t="inlineStr">
@@ -19733,7 +19733,7 @@
       </c>
       <c r="F585" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G585" t="inlineStr">
@@ -19766,7 +19766,7 @@
       </c>
       <c r="F586" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G586" t="inlineStr">
@@ -19799,7 +19799,7 @@
       </c>
       <c r="F587" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G587" t="inlineStr">
@@ -19832,7 +19832,7 @@
       </c>
       <c r="F588" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G588" t="inlineStr">
@@ -19865,7 +19865,7 @@
       </c>
       <c r="F589" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G589" t="inlineStr">
@@ -19898,7 +19898,7 @@
       </c>
       <c r="F590" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G590" t="inlineStr">
@@ -19931,7 +19931,7 @@
       </c>
       <c r="F591" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G591" t="inlineStr">
@@ -19964,7 +19964,7 @@
       </c>
       <c r="F592" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G592" t="inlineStr">
@@ -19997,7 +19997,7 @@
       </c>
       <c r="F593" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G593" t="inlineStr">
@@ -20030,7 +20030,7 @@
       </c>
       <c r="F594" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G594" t="inlineStr">
@@ -20063,7 +20063,7 @@
       </c>
       <c r="F595" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G595" t="inlineStr">
@@ -20096,7 +20096,7 @@
       </c>
       <c r="F596" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G596" t="inlineStr">
@@ -20129,7 +20129,7 @@
       </c>
       <c r="F597" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G597" t="inlineStr">
@@ -20162,7 +20162,7 @@
       </c>
       <c r="F598" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G598" t="inlineStr">
@@ -20195,7 +20195,7 @@
       </c>
       <c r="F599" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G599" t="inlineStr">
@@ -20228,7 +20228,7 @@
       </c>
       <c r="F600" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G600" t="inlineStr">
@@ -20261,7 +20261,7 @@
       </c>
       <c r="F601" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G601" t="inlineStr">
@@ -20294,7 +20294,7 @@
       </c>
       <c r="F602" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G602" t="inlineStr">
@@ -20327,7 +20327,7 @@
       </c>
       <c r="F603" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G603" t="inlineStr">
@@ -20360,7 +20360,7 @@
       </c>
       <c r="F604" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G604" t="inlineStr">
@@ -20393,7 +20393,7 @@
       </c>
       <c r="F605" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G605" t="inlineStr">
@@ -20426,7 +20426,7 @@
       </c>
       <c r="F606" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G606" t="inlineStr">
@@ -20459,7 +20459,7 @@
       </c>
       <c r="F607" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G607" t="inlineStr">
@@ -20492,7 +20492,7 @@
       </c>
       <c r="F608" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G608" t="inlineStr">
@@ -20525,7 +20525,7 @@
       </c>
       <c r="F609" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G609" t="inlineStr">
@@ -20558,7 +20558,7 @@
       </c>
       <c r="F610" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G610" t="inlineStr">
@@ -20591,7 +20591,7 @@
       </c>
       <c r="F611" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G611" t="inlineStr">
@@ -20624,7 +20624,7 @@
       </c>
       <c r="F612" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G612" t="inlineStr">
@@ -20657,7 +20657,7 @@
       </c>
       <c r="F613" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G613" t="inlineStr">
@@ -20690,7 +20690,7 @@
       </c>
       <c r="F614" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
       <c r="G614" t="inlineStr">
